--- a/CDAP Template.xlsx
+++ b/CDAP Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4840db43bd26e92/Projects/j. Digital Advisor/a. Deliverable Template/graphs/Streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshaho/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{1BFB7C19-B3A4-43DA-9271-B9F70D684A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DE82DB0-51FC-344F-9FE9-72E344145F16}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE2566-6225-A346-9883-DE23C53F18E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{2B29D527-18C8-44C8-9ECB-45F01A2C0AD6}"/>
+    <workbookView xWindow="2940" yWindow="1480" windowWidth="25600" windowHeight="15540" xr2:uid="{2B29D527-18C8-44C8-9ECB-45F01A2C0AD6}"/>
   </bookViews>
   <sheets>
     <sheet name="CDAP Data" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -498,14 +498,8 @@
       <color theme="1"/>
       <name val="Open Sans Regular"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,12 +527,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2DEDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -785,7 +773,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -829,25 +816,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,23 +855,11 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1959,18 +1946,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87C5AE27-8CDF-430D-A606-6EACD081458E}" name="Table1" displayName="Table1" ref="A1:F42" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47" totalsRowBorderDxfId="46">
-  <autoFilter ref="A1:F42" xr:uid="{010D1EDB-60B4-6E4E-A6D7-BFCDD6AD108B}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Customer Experience"/>
-        <filter val="Interactions &amp; Data Security"/>
-        <filter val="Organization"/>
-        <filter val="Partners &amp; Alliances"/>
-        <filter val="Strategy"/>
-        <filter val="Technology"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F42" xr:uid="{010D1EDB-60B4-6E4E-A6D7-BFCDD6AD108B}"/>
   <tableColumns count="6">
     <tableColumn id="5" xr3:uid="{5FADB2EB-D1B2-4C95-9446-606CB3BF5937}" name="Index" dataDxfId="45"/>
     <tableColumn id="1" xr3:uid="{2311E3DB-046E-439B-BC21-6DDC87BD026A}" name="Operational Indicators" dataDxfId="44"/>
@@ -2339,11 +2315,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C1937D-FCA4-432E-A3D1-AC32563B1CCF}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A42"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
@@ -2352,7 +2328,7 @@
     <col min="6" max="6" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2372,7 +2348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2388,7 +2364,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2404,7 +2380,7 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2420,7 +2396,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2436,7 +2412,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2452,7 +2428,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="30" hidden="1" customHeight="1">
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2462,17 +2438,13 @@
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7">
-        <v>2</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="8">
         <v>3.38</v>
       </c>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" hidden="1" customHeight="1">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2482,17 +2454,13 @@
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="8">
         <v>2.99</v>
       </c>
-      <c r="F8" s="9">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="38.5" hidden="1" customHeight="1">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2502,17 +2470,13 @@
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="8">
         <v>3.08</v>
       </c>
-      <c r="F9" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" hidden="1" customHeight="1">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2522,17 +2486,13 @@
       <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="8">
         <v>3.28</v>
       </c>
-      <c r="F10" s="9">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="37.75" hidden="1" customHeight="1">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2542,17 +2502,13 @@
       <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="8">
         <v>3.31</v>
       </c>
-      <c r="F11" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1">
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2568,7 +2524,7 @@
       </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1">
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2584,7 +2540,7 @@
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1">
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2600,7 +2556,7 @@
       </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1">
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2616,7 +2572,7 @@
       </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1">
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2632,7 +2588,7 @@
       </c>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2648,7 +2604,7 @@
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2664,7 +2620,7 @@
       </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2680,7 +2636,7 @@
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="45.5" customHeight="1">
+    <row r="20" spans="1:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2696,7 +2652,7 @@
       </c>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2712,7 +2668,7 @@
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2728,7 +2684,7 @@
       </c>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2744,7 +2700,7 @@
       </c>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2760,7 +2716,7 @@
       </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2776,7 +2732,7 @@
       </c>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2792,7 +2748,7 @@
       </c>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2808,7 +2764,7 @@
       </c>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2823,8 +2779,9 @@
         <v>3.23</v>
       </c>
       <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2839,9 +2796,9 @@
         <v>3.3</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="54"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" hidden="1" customHeight="1">
+      <c r="G29" s="53"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2851,18 +2808,14 @@
       <c r="C30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="13">
-        <v>1</v>
-      </c>
+      <c r="D30" s="13"/>
       <c r="E30" s="8">
         <v>3.51</v>
       </c>
-      <c r="F30" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" hidden="1" customHeight="1">
+      <c r="F30" s="9"/>
+      <c r="G30" s="53"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2872,18 +2825,14 @@
       <c r="C31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="8">
         <v>3.51</v>
       </c>
-      <c r="F31" s="9">
-        <v>5</v>
-      </c>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" hidden="1" customHeight="1">
+      <c r="F31" s="9"/>
+      <c r="G31" s="53"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2893,18 +2842,14 @@
       <c r="C32" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="13">
-        <v>2</v>
-      </c>
+      <c r="D32" s="13"/>
       <c r="E32" s="8">
         <v>3.53</v>
       </c>
-      <c r="F32" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" hidden="1" customHeight="1">
+      <c r="F32" s="9"/>
+      <c r="G32" s="53"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2914,17 +2859,14 @@
       <c r="C33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="8">
         <v>3.48</v>
       </c>
-      <c r="F33" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1">
+      <c r="F33" s="9"/>
+      <c r="G33" s="53"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2939,8 +2881,9 @@
         <v>3.36</v>
       </c>
       <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1">
+      <c r="G34" s="53"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2955,8 +2898,9 @@
         <v>3.28</v>
       </c>
       <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1">
+      <c r="G35" s="53"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2971,8 +2915,9 @@
         <v>3.51</v>
       </c>
       <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1">
+      <c r="G36" s="53"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2988,7 +2933,7 @@
       </c>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3004,7 +2949,7 @@
       </c>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3020,7 +2965,7 @@
       </c>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3036,7 +2981,7 @@
       </c>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3052,7 +2997,7 @@
       </c>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -3084,7 +3029,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" hidden="1" customWidth="1"/>
@@ -3097,281 +3042,281 @@
     <col min="9" max="9" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="34" customFormat="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:9" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="34" customFormat="1">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:9" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="35" t="e">
+      <c r="B2" s="34" t="e">
         <f t="shared" ref="B2:B14" si="0">AVERAGE(C2:E2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="e">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="e">
         <f t="shared" ref="F2:F14" si="1">AVERAGE(G2:I2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:9" s="34" customFormat="1">
-      <c r="A3" s="35" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="35" t="e">
+      <c r="B3" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35" t="e">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:9" s="34" customFormat="1">
-      <c r="A4" s="35" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="35" t="e">
+      <c r="B4" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="e">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="1:9" s="34" customFormat="1">
-      <c r="A5" s="35" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="35" t="e">
+      <c r="B5" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="e">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" s="34" customFormat="1">
-      <c r="A6" s="35" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="35" t="e">
+      <c r="B6" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="e">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" s="34" customFormat="1">
-      <c r="A7" s="35" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="35" t="e">
+      <c r="B7" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="e">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:9" s="34" customFormat="1">
-      <c r="A8" s="35" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="35" t="e">
+      <c r="B8" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="e">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" s="34" customFormat="1">
-      <c r="A9" s="35" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="35" t="e">
+      <c r="B9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35" t="e">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" s="34" customFormat="1">
-      <c r="A10" s="35" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="35" t="e">
+      <c r="B10" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35" t="e">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:9" s="34" customFormat="1">
-      <c r="A11" s="35" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="35" t="e">
+      <c r="B11" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35" t="e">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:9" s="34" customFormat="1" ht="34">
-      <c r="A12" s="36" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" s="33" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="35" t="e">
+      <c r="B12" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35" t="e">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9" s="34" customFormat="1">
-      <c r="A13" s="35" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" s="33" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="35" t="e">
+      <c r="B13" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35" t="e">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="33" t="s">
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="33" t="e">
+      <c r="B14" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33" t="e">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3398,1994 +3343,1994 @@
       <selection pane="topRight" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="21" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="21"/>
-    <col min="6" max="6" width="14.1640625" style="21" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="21"/>
-    <col min="9" max="9" width="20.1640625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="21" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="21"/>
-    <col min="12" max="12" width="12.83203125" style="21" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="21"/>
-    <col min="15" max="15" width="13.5" style="21" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="6.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="20" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="20"/>
+    <col min="6" max="6" width="14.1640625" style="20" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="20"/>
+    <col min="9" max="9" width="20.1640625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="20" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="20"/>
+    <col min="12" max="12" width="12.83203125" style="20" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" style="20"/>
+    <col min="15" max="15" width="13.5" style="20" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="42">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14">
-      <c r="A2" s="27">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="28">
-      <c r="A3" s="27">
+      <c r="C2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="28">
-      <c r="A4" s="27">
+      <c r="C3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="28">
-      <c r="A5" s="27">
+      <c r="C4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="14">
-      <c r="A6" s="27">
+      <c r="C5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="28">
-      <c r="A7" s="27">
+      <c r="C6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="28">
-      <c r="A8" s="27">
+      <c r="C7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="42">
-      <c r="A9" s="27">
+      <c r="C8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="28">
-      <c r="A10" s="27">
+      <c r="C9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="42">
-      <c r="A11" s="27">
+      <c r="C10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="28">
-      <c r="A12" s="27">
+      <c r="C11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="14">
-      <c r="A13" s="27">
+      <c r="C12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="28">
-      <c r="A14" s="27">
+      <c r="C13" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="14">
-      <c r="A15" s="27">
+      <c r="C14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="28">
-      <c r="A16" s="27">
+      <c r="C15" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="28">
-      <c r="A17" s="27">
+      <c r="C16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="28">
-      <c r="A18" s="27">
+      <c r="C17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="28">
-      <c r="A19" s="27">
+      <c r="C18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="42">
-      <c r="A20" s="27">
+      <c r="C19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="14">
-      <c r="A21" s="27">
+      <c r="C20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="14">
-      <c r="A22" s="27">
+      <c r="C21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="14">
-      <c r="A23" s="27">
+      <c r="C22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="14">
-      <c r="A24" s="27">
+      <c r="C23" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="28">
-      <c r="A25" s="27">
+      <c r="C24" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="14">
-      <c r="A26" s="27">
+      <c r="C25" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N26" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O26" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="28">
-      <c r="A27" s="27">
+      <c r="C26" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="28">
-      <c r="A28" s="27">
+      <c r="C27" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O28" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="28">
-      <c r="A29" s="27">
+      <c r="C28" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O29" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="42">
-      <c r="A30" s="27">
+      <c r="C29" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O30" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="42">
-      <c r="A31" s="27">
+      <c r="C30" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M31" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O31" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="28">
-      <c r="A32" s="27">
+      <c r="C31" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O32" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="28">
-      <c r="A33" s="27">
+      <c r="C32" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O33" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="28">
-      <c r="A34" s="27">
+      <c r="C33" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M34" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N34" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O34" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="28">
-      <c r="A35" s="27">
+      <c r="C34" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O35" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="14">
-      <c r="A36" s="27">
+      <c r="C35" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M36" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N36" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O36" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="14">
-      <c r="A37" s="27">
+      <c r="C36" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+      <c r="A37" s="26">
         <v>36</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N37" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O37" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="28">
-      <c r="A38" s="27">
+      <c r="C37" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+      <c r="A38" s="26">
         <v>37</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N38" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O38" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="14">
-      <c r="A39" s="27">
+      <c r="C38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+      <c r="A39" s="26">
         <v>38</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N39" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O39" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="14">
-      <c r="A40" s="27">
+      <c r="C39" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+      <c r="A40" s="26">
         <v>39</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M40" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O40" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="28">
-      <c r="A41" s="27">
+      <c r="C40" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+      <c r="A41" s="26">
         <v>40</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N41" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O41" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="42">
-      <c r="A42" s="25">
+      <c r="C41" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="36" x14ac:dyDescent="0.15">
+      <c r="A42" s="24">
         <v>41</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M42" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N42" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O42" s="22" t="s">
+      <c r="C42" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5435,159 +5380,159 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="3" max="6" width="30.83203125" customWidth="1"/>
     <col min="7" max="7" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="51" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="51">
+      <c r="D1" s="50">
         <v>2</v>
       </c>
-      <c r="E1" s="51">
+      <c r="E1" s="50">
         <v>3</v>
       </c>
-      <c r="F1" s="51">
+      <c r="F1" s="50">
         <v>4</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="82" customHeight="1">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:7" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="70" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="47" t="s">
+    <row r="3" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
+      <c r="B3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="70" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="47" t="s">
+    <row r="4" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="47"/>
+      <c r="B4" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="70" customHeight="1">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="55" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="44" t="s">
+    <row r="6" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="44"/>
+      <c r="B6" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="55" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="42" t="s">
+    <row r="7" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5598,12 +5543,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5739,15 +5681,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0517E4E2-4780-401D-9012-64C99AF61BEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0595DEA5-3BB4-4C08-A390-EF8B97AB3FDF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5771,10 +5717,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0595DEA5-3BB4-4C08-A390-EF8B97AB3FDF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0517E4E2-4780-401D-9012-64C99AF61BEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CDAP Template.xlsx
+++ b/CDAP Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshaho/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE2566-6225-A346-9883-DE23C53F18E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A41E12-39E6-6B40-90A3-3E26E9C4F80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1480" windowWidth="25600" windowHeight="15540" xr2:uid="{2B29D527-18C8-44C8-9ECB-45F01A2C0AD6}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -862,7 +862,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2313,9 +2312,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C1937D-FCA4-432E-A3D1-AC32563B1CCF}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F30" sqref="F30:F34"/>
     </sheetView>
   </sheetViews>
@@ -2588,7 +2587,7 @@
       </c>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2604,7 +2603,7 @@
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2620,7 +2619,7 @@
       </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2636,7 +2635,7 @@
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2652,7 +2651,7 @@
       </c>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2668,7 +2667,7 @@
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2684,7 +2683,7 @@
       </c>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2700,7 +2699,7 @@
       </c>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2716,7 +2715,7 @@
       </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2732,7 +2731,7 @@
       </c>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2748,7 +2747,7 @@
       </c>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2764,7 +2763,7 @@
       </c>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2779,9 +2778,8 @@
         <v>3.23</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2796,9 +2794,8 @@
         <v>3.3</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="53"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2813,9 +2810,8 @@
         <v>3.51</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="53"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2830,9 +2826,8 @@
         <v>3.51</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="53"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2847,9 +2842,8 @@
         <v>3.53</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="53"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2864,9 +2858,8 @@
         <v>3.48</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="53"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2881,9 +2874,8 @@
         <v>3.36</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="53"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2898,9 +2890,8 @@
         <v>3.28</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="53"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2915,9 +2906,8 @@
         <v>3.51</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="53"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2933,7 +2923,7 @@
       </c>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2949,7 +2939,7 @@
       </c>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2965,7 +2955,7 @@
       </c>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2981,7 +2971,7 @@
       </c>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2997,7 +2987,7 @@
       </c>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -3360,7 +3350,7 @@
     <col min="16" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3407,7 +3397,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -3454,7 +3444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -3501,7 +3491,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -3548,7 +3538,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -3595,7 +3585,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -3642,7 +3632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -3689,7 +3679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -3736,7 +3726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -3783,7 +3773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>9</v>
       </c>
@@ -3830,7 +3820,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
         <v>10</v>
       </c>
@@ -3877,7 +3867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <v>11</v>
       </c>
@@ -3924,7 +3914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" s="26">
         <v>12</v>
       </c>
@@ -3971,7 +3961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A14" s="26">
         <v>13</v>
       </c>
@@ -4018,7 +4008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -4065,7 +4055,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="26">
         <v>15</v>
       </c>
@@ -4112,7 +4102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -4159,7 +4149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A18" s="26">
         <v>17</v>
       </c>
@@ -4206,7 +4196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
         <v>18</v>
       </c>
@@ -4253,7 +4243,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -4300,7 +4290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -4347,7 +4337,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -4394,7 +4384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -4441,7 +4431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" s="26">
         <v>23</v>
       </c>
@@ -4488,7 +4478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A25" s="26">
         <v>24</v>
       </c>
@@ -4535,7 +4525,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" s="26">
         <v>25</v>
       </c>
@@ -4582,7 +4572,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -4629,7 +4619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A28" s="26">
         <v>27</v>
       </c>
@@ -4676,7 +4666,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A29" s="26">
         <v>28</v>
       </c>
@@ -4723,7 +4713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A30" s="26">
         <v>29</v>
       </c>
@@ -4770,7 +4760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A31" s="26">
         <v>30</v>
       </c>
@@ -4817,7 +4807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="22" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A32" s="26">
         <v>31</v>
       </c>
@@ -5543,9 +5533,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5681,19 +5674,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0595DEA5-3BB4-4C08-A390-EF8B97AB3FDF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0517E4E2-4780-401D-9012-64C99AF61BEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5717,9 +5706,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0517E4E2-4780-401D-9012-64C99AF61BEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0595DEA5-3BB4-4C08-A390-EF8B97AB3FDF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CDAP Template.xlsx
+++ b/CDAP Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshaho/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A41E12-39E6-6B40-90A3-3E26E9C4F80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FCBFC5-90AE-BB41-B102-C2203F19C78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1480" windowWidth="25600" windowHeight="15540" xr2:uid="{2B29D527-18C8-44C8-9ECB-45F01A2C0AD6}"/>
   </bookViews>
@@ -2315,7 +2315,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F34"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4760,7 +4760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="36" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A31" s="26">
         <v>30</v>
       </c>
@@ -5533,12 +5533,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5674,15 +5671,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0517E4E2-4780-401D-9012-64C99AF61BEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0595DEA5-3BB4-4C08-A390-EF8B97AB3FDF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5706,10 +5707,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0595DEA5-3BB4-4C08-A390-EF8B97AB3FDF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0517E4E2-4780-401D-9012-64C99AF61BEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>